--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>宝盈新锐灵活配置混合C</t>
   </si>
   <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
     <t>94.41</t>
   </si>
   <si>
     <t>9.66</t>
+  </si>
+  <si>
+    <t>0.3671</t>
+  </si>
+  <si>
+    <t>0.0222</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001543</t>
-  </si>
-  <si>
-    <t>007578</t>
-  </si>
-  <si>
-    <t>宝盈新锐灵活配置混合A</t>
-  </si>
-  <si>
-    <t>宝盈新锐灵活配置混合C</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>94.41</t>
-  </si>
-  <si>
-    <t>9.66</t>
-  </si>
-  <si>
-    <t>0.3671</t>
-  </si>
-  <si>
-    <t>0.0222</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.56</v>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1281,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.27</v>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>208.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.56</v>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,14 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.27</v>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2606,14 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.27</v>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2622,14 +2687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2638,14 +2725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.56</v>
+          <t>010949</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城研究驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2654,13 +2763,279 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001543</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3671</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>009121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>广发招享混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>50.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>21.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8762</t>
+          <t>0.5467</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>013880</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>广发招享混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>28.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>21.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5916</t>
+          <t>0.3066</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>011383</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>富安达医药创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0687</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>010949</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>景顺长城研究驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>61.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0303</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +791,148 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +967,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +997,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>000118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>广发聚鑫债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>208.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.33</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8778</t>
+          <t>2.1289</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +1035,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>81.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3863</t>
+          <t>0.6481</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +1073,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009223</t>
+          <t>519171</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合A</t>
+          <t>浦银安盛医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2150</t>
+          <t>0.4123</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +1111,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>000339</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>长城医疗保健混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>88.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.3771</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1037,36 +1149,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009224</t>
+          <t>011673</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合C</t>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>88.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.3123</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1075,36 +1187,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>000780</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>鹏华医疗保健股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>82.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.2984</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1113,36 +1225,682 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>000119</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>广发聚鑫债券C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>0.16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +2350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1613,7 +2371,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1643,36 +2401,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000118</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发聚鑫债券A</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>208.72</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1289</t>
+          <t>0.8778</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1681,36 +2439,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.52</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6481</t>
+          <t>0.3863</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1719,36 +2477,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>009223</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>宝盈现代服务业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4123</t>
+          <t>0.2150</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1757,36 +2515,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000339</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城医疗保健混合</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.40</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3771</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1795,36 +2553,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011673</t>
+          <t>009224</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+          <t>宝盈现代服务业混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3123</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1833,36 +2591,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000780</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华医疗保健股票</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2984</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1871,682 +2629,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000119</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发聚鑫债券C</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2095</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009623</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2034</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000968</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1881</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008786</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城健康生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.57</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1526</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013037</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城大健康混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>39.47</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1171</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>72.64</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011674</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014416</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰康研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>014417</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰康研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.61</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002982</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>72.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>516560</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝养老ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>97.92</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>013038</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长城大健康混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>39.47</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004641</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家量化睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.90</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>013442</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强E</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2560,7 +2672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2581,7 +2693,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2611,36 +2723,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009121</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发招享混合</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.62</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5467</t>
+          <t>0.8762</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2649,36 +2761,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013880</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发招享混合C</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.39</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3066</t>
+          <t>0.5916</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2687,36 +2799,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011383</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达医药创新混合</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>95.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0687</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2725,36 +2837,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010949</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城研究驱动三年持有期混合</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.74</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2763,148 +2875,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>95.36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0261</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010404</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博道盛利6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002952</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信多因子量化股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014470</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2918,128 +2918,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.01</v>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.39</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.27</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>2.27</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009121</t>
+          <t>000118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发招享混合</t>
+          <t>广发聚鑫债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.62</t>
+          <t>145.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5467</t>
+          <t>1.4584</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,22 +694,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013880</t>
+          <t>009121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发招享混合C</t>
+          <t>广发招享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.39</t>
+          <t>58.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>23.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -702,7 +719,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3066</t>
+          <t>0.6297</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011383</t>
+          <t>260103</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达医药创新混合</t>
+          <t>景顺长城动力平衡混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>68.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0687</t>
+          <t>0.2812</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010949</t>
+          <t>013880</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城研究驱动三年持有期混合</t>
+          <t>广发招享混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.74</t>
+          <t>23.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.2738</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -791,32 +808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>000119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>广发聚鑫债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0261</t>
+          <t>0.1695</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010404</t>
+          <t>010949</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博道盛利6个月持有期混合</t>
+          <t>景顺长城研究驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.72</t>
+          <t>67.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>011404</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>融通鑫新成长混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0513</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -905,31 +922,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014470</t>
+          <t>011403</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合C</t>
+          <t>融通鑫新成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>9</v>
@@ -941,6 +960,364 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010949</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城研究驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1908,7 +2285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2666,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2912,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/603896-寿仙谷.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.94</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.27</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>2.27</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.58</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000118</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发聚鑫债券A</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>145.84</t>
+          <t>27.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.01</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4584</t>
+          <t>1.0120</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009121</t>
+          <t>008131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发招享混合A</t>
+          <t>景顺长城竞争优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.31</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.12</t>
+          <t>88.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6297</t>
+          <t>0.8258</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260103</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城动力平衡混合</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>20.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68.77</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2812</t>
+          <t>0.7419</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013880</t>
+          <t>010348</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发招享混合C</t>
+          <t>景顺长城泰保三个月定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.35</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.12</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2738</t>
+          <t>0.6501</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000119</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚鑫债券C</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.01</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1695</t>
+          <t>0.3416</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010949</t>
+          <t>260103</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城研究驱动三年持有期混合</t>
+          <t>景顺长城动力平衡混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67.69</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0662</t>
+          <t>0.3300</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,32 +901,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011404</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融通鑫新成长混合C</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -922,35 +939,299 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011403</t>
+          <t>010949</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融通鑫新成长混合A</t>
+          <t>景顺长城研究驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>79.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1016,36 +1297,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009121</t>
+          <t>000118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发招享混合</t>
+          <t>广发聚鑫债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.62</t>
+          <t>145.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5467</t>
+          <t>1.4584</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1054,22 +1335,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013880</t>
+          <t>009121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发招享混合C</t>
+          <t>广发招享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.39</t>
+          <t>58.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>23.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1079,7 +1360,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3066</t>
+          <t>0.6297</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1092,36 +1373,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011383</t>
+          <t>260103</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达医药创新混合</t>
+          <t>景顺长城动力平衡混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>68.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0687</t>
+          <t>0.2812</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1130,36 +1411,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010949</t>
+          <t>013880</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城研究驱动三年持有期混合</t>
+          <t>广发招享混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.74</t>
+          <t>23.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.2738</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1168,32 +1449,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>000119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>广发聚鑫债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0261</t>
+          <t>0.1695</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1206,36 +1487,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010404</t>
+          <t>010949</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博道盛利6个月持有期混合</t>
+          <t>景顺长城研究驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.72</t>
+          <t>67.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1244,36 +1525,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>011404</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>融通鑫新成长混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0513</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1282,31 +1563,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014470</t>
+          <t>011403</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合C</t>
+          <t>融通鑫新成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>9</v>
@@ -1318,6 +1601,364 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010949</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城研究驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +3362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3043,7 +3684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3289,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
